--- a/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -74,6 +74,21 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
@@ -206,6 +221,30 @@
     <t xml:space="preserve">Twisp River Middle 06</t>
   </si>
   <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
     <t xml:space="preserve">White River Lower 08</t>
   </si>
   <si>
@@ -215,6 +254,15 @@
     <t xml:space="preserve">Spawning and Incubation</t>
   </si>
   <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 06</t>
   </si>
   <si>
@@ -269,13 +317,19 @@
     <t xml:space="preserve">Nason Creek Lower 04</t>
   </si>
   <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nason Creek Lower 05</t>
   </si>
   <si>
     <t xml:space="preserve">Nason Creek Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 13</t>
   </si>
 </sst>
 </file>
@@ -707,39 +761,39 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -747,22 +801,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
@@ -770,22 +824,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
         <v>13</v>
@@ -793,25 +847,25 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
@@ -819,10 +873,10 @@
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -831,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -842,56 +896,56 @@
         <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -900,53 +954,53 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -954,68 +1008,68 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
         <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G18" t="s">
         <v>19</v>
@@ -1023,22 +1077,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1046,10 +1100,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>9</v>
@@ -1058,24 +1112,24 @@
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
         <v>50</v>
-      </c>
-      <c r="B21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" t="s">
-        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
@@ -1095,19 +1149,19 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C22" t="s">
         <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -1115,22 +1169,22 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" t="s">
         <v>53</v>
       </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -1141,62 +1195,62 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>18</v>
@@ -1207,20 +1261,22 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27"/>
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>40</v>
+      </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
         <v>19</v>
@@ -1228,20 +1284,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28"/>
-      <c r="F28" t="s">
-        <v>12</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -1249,25 +1307,25 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
         <v>63</v>
       </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" t="s">
-        <v>12</v>
-      </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30">
@@ -1275,19 +1333,19 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -1295,132 +1353,136 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E32"/>
       <c r="F32" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E33"/>
+        <v>10</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
-      </c>
-      <c r="E34"/>
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
       <c r="F34" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
         <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="G35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" t="s">
-        <v>68</v>
-      </c>
-      <c r="E36" t="s">
-        <v>35</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
-      </c>
       <c r="G36" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37">
@@ -1428,63 +1490,65 @@
         <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>17</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D38" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38"/>
+        <v>17</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
       <c r="F38" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s">
         <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G39" t="s">
         <v>19</v>
@@ -1492,85 +1556,85 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
         <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>68</v>
-      </c>
-      <c r="E40"/>
+        <v>10</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E42"/>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>29</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
-      </c>
-      <c r="E43" t="s">
-        <v>35</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E43"/>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G43" t="s">
         <v>19</v>
@@ -1578,22 +1642,20 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" t="s">
-        <v>23</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="E44"/>
       <c r="F44" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -1601,22 +1663,22 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>27</v>
+      </c>
+      <c r="D45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D45" t="s">
-        <v>68</v>
-      </c>
       <c r="E45" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>85</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>19</v>
@@ -1624,22 +1686,22 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s">
         <v>19</v>
@@ -1647,24 +1709,313 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D47" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="E47" t="s">
         <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" t="s">
+        <v>84</v>
+      </c>
+      <c r="E48"/>
+      <c r="F48" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>84</v>
+      </c>
+      <c r="E49" t="s">
+        <v>11</v>
+      </c>
+      <c r="F49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50"/>
+      <c r="F50" t="s">
+        <v>94</v>
+      </c>
+      <c r="G50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51"/>
+      <c r="F51" t="s">
+        <v>94</v>
+      </c>
+      <c r="G51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E52"/>
+      <c r="F52" t="s">
+        <v>94</v>
+      </c>
+      <c r="G52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>84</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+      <c r="F53" t="s">
+        <v>94</v>
+      </c>
+      <c r="G53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>84</v>
+      </c>
+      <c r="E54" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55" t="s">
+        <v>60</v>
+      </c>
+      <c r="C55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>40</v>
+      </c>
+      <c r="F56" t="s">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>60</v>
+      </c>
+      <c r="C57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D57" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" t="s">
+        <v>11</v>
+      </c>
+      <c r="F57" t="s">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>11</v>
+      </c>
+      <c r="F58" t="s">
+        <v>76</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>104</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" t="s">
+        <v>73</v>
+      </c>
+      <c r="C60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60"/>
+      <c r="F60" t="s">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -89,202 +89,217 @@
     <t xml:space="preserve">Chewuch River Thirtymile 05</t>
   </si>
   <si>
+    <t xml:space="preserve">Chikamin Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chikamin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Lake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 01</t>
   </si>
   <si>
-    <t xml:space="preserve">Entiat River-Lake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
   </si>
   <si>
     <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
   </si>
   <si>
     <t xml:space="preserve">Little Wenatchee River Lower 05</t>
@@ -856,13 +871,13 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -870,13 +885,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -885,7 +900,7 @@
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -893,13 +908,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -916,13 +931,13 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -931,7 +946,7 @@
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -939,13 +954,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -954,7 +969,7 @@
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -962,13 +977,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -977,7 +992,7 @@
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -985,25 +1000,25 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
         <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16">
@@ -1011,19 +1026,19 @@
         <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s">
         <v>19</v>
@@ -1031,25 +1046,25 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18">
@@ -1057,22 +1072,22 @@
         <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19">
@@ -1080,19 +1095,19 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
         <v>19</v>
@@ -1100,48 +1115,48 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
         <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F21" t="s">
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22">
@@ -1149,30 +1164,30 @@
         <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
@@ -1181,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
@@ -1195,7 +1210,7 @@
         <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -1204,21 +1219,21 @@
         <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F24" t="s">
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" t="s">
         <v>55</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -1238,25 +1253,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
         <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
@@ -1264,7 +1279,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1273,7 +1288,7 @@
         <v>17</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>18</v>
@@ -1284,22 +1299,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
       <c r="C28" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
         <v>19</v>
@@ -1307,13 +1322,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
         <v>62</v>
       </c>
-      <c r="B29" t="s">
-        <v>60</v>
-      </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
@@ -1333,19 +1348,19 @@
         <v>64</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G30" t="s">
         <v>19</v>
@@ -1353,20 +1368,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
         <v>65</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C31" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" t="s">
-        <v>12</v>
       </c>
       <c r="G31" t="s">
         <v>19</v>
@@ -1377,7 +1394,7 @@
         <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
         <v>9</v>
@@ -1395,10 +1412,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>68</v>
-      </c>
-      <c r="B33" t="s">
-        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1406,22 +1423,20 @@
       <c r="D33" t="s">
         <v>10</v>
       </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
+      <c r="E33"/>
       <c r="F33" t="s">
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -1444,7 +1459,7 @@
         <v>71</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1464,22 +1479,22 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
         <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>74</v>
+        <v>12</v>
       </c>
       <c r="G36" t="s">
         <v>13</v>
@@ -1487,13 +1502,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
         <v>75</v>
       </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D37" t="s">
         <v>17</v>
@@ -1505,7 +1520,7 @@
         <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38">
@@ -1513,10 +1528,10 @@
         <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
@@ -1525,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s">
         <v>19</v>
@@ -1533,13 +1548,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
@@ -1556,13 +1571,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -1574,49 +1589,53 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C41" t="s">
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41"/>
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
       <c r="F41" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
         <v>85</v>
       </c>
-      <c r="B42" t="s">
-        <v>26</v>
-      </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E42"/>
+        <v>10</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
       <c r="F42" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
@@ -1624,20 +1643,22 @@
         <v>86</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43"/>
+        <v>10</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G43" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -1645,17 +1666,19 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C44" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D44" t="s">
-        <v>84</v>
-      </c>
-      <c r="E44"/>
+        <v>88</v>
+      </c>
+      <c r="E44" t="s">
+        <v>28</v>
+      </c>
       <c r="F44" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
         <v>19</v>
@@ -1666,22 +1689,20 @@
         <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D45" t="s">
-        <v>84</v>
-      </c>
-      <c r="E45" t="s">
-        <v>11</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E45"/>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G45" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46">
@@ -1689,22 +1710,20 @@
         <v>90</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E46" t="s">
-        <v>28</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E46"/>
       <c r="F46" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="G46" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47">
@@ -1712,22 +1731,20 @@
         <v>91</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D47" t="s">
-        <v>84</v>
-      </c>
-      <c r="E47" t="s">
-        <v>11</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E47"/>
       <c r="F47" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48">
@@ -1735,40 +1752,40 @@
         <v>92</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
         <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G49" t="s">
         <v>19</v>
@@ -1779,17 +1796,19 @@
         <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
-      </c>
-      <c r="E50"/>
+        <v>88</v>
+      </c>
+      <c r="E50" t="s">
+        <v>47</v>
+      </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="G50" t="s">
         <v>19</v>
@@ -1800,20 +1819,22 @@
         <v>96</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>84</v>
-      </c>
-      <c r="E51"/>
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>11</v>
+      </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52">
@@ -1821,20 +1842,20 @@
         <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E52"/>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G52" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53">
@@ -1842,19 +1863,19 @@
         <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C53" t="s">
         <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E53" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="G53" t="s">
         <v>19</v>
@@ -1862,22 +1883,20 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>88</v>
+      </c>
+      <c r="E54"/>
+      <c r="F54" t="s">
         <v>99</v>
-      </c>
-      <c r="B54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" t="s">
-        <v>84</v>
-      </c>
-      <c r="E54" t="s">
-        <v>28</v>
-      </c>
-      <c r="F54" t="s">
-        <v>18</v>
       </c>
       <c r="G54" t="s">
         <v>19</v>
@@ -1885,22 +1904,20 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E55" t="s">
-        <v>28</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E55"/>
       <c r="F55" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G55" t="s">
         <v>19</v>
@@ -1908,22 +1925,20 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" t="s">
-        <v>40</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E56"/>
       <c r="F56" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G56" t="s">
         <v>19</v>
@@ -1931,22 +1946,22 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F57" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="G57" t="s">
         <v>19</v>
@@ -1954,22 +1969,22 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G58" t="s">
         <v>19</v>
@@ -1977,22 +1992,22 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G59" t="s">
         <v>19</v>
@@ -2000,22 +2015,114 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>84</v>
-      </c>
-      <c r="E60"/>
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>47</v>
+      </c>
       <c r="F60" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>27</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+      <c r="F61" t="s">
+        <v>78</v>
+      </c>
+      <c r="G61" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>108</v>
+      </c>
+      <c r="B62" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" t="s">
+        <v>75</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+      <c r="F63" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" t="s">
+        <v>75</v>
+      </c>
+      <c r="C64" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" t="s">
+        <v>88</v>
+      </c>
+      <c r="E64"/>
+      <c r="F64" t="s">
+        <v>78</v>
+      </c>
+      <c r="G64" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
+++ b/Output/Protection_Prioritization_Output_SPRING_CHINOOK_for_WebMap_Table.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t xml:space="preserve">Reach Name</t>
   </si>
@@ -35,7 +35,7 @@
     <t xml:space="preserve">Action Categories</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 04</t>
+    <t xml:space="preserve">Chewuch River Doe 05</t>
   </si>
   <si>
     <t xml:space="preserve">Chewuch River-Doe Creek</t>
@@ -56,9 +56,6 @@
     <t xml:space="preserve">Land Protection (e.g. conservation easement and/or property acquisition)</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River Doe 05</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Pearrygin 08</t>
   </si>
   <si>
@@ -74,12 +71,15 @@
     <t xml:space="preserve">Land Management for Protection, Land Protection (e.g. conservation easement and/or property acquisition)”</t>
   </si>
   <si>
+    <t xml:space="preserve">Chewuch River Thirtymile 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 02</t>
   </si>
   <si>
-    <t xml:space="preserve">Chewuch River-Thirtymile Creek</t>
-  </si>
-  <si>
     <t xml:space="preserve">Chewuch River Thirtymile 03</t>
   </si>
   <si>
@@ -101,6 +101,12 @@
     <t xml:space="preserve">1</t>
   </si>
   <si>
+    <t xml:space="preserve">Chiwawa River Middle 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Chiwawa River</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 02</t>
   </si>
   <si>
@@ -125,217 +131,217 @@
     <t xml:space="preserve">Entiat River Lake 10</t>
   </si>
   <si>
+    <t xml:space="preserve">Entiat River Potato 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Potato Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Potato 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land Management for Protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River-Preston Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hancock Creek 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Fawn Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Little Wenatchee River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Fawn 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Rattlesnake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River-Thompson Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Creek Peshastin 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Peshastin Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower Nason Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Middle 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Twisp River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twisp River Upper 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River Beaver 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower White River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White River Lower 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolf Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent Limiting Factors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Lake 07</t>
+  </si>
+  <si>
     <t xml:space="preserve">Entiat River Lake 11</t>
   </si>
   <si>
-    <t xml:space="preserve">Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Potato Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry,Summer Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Land Management for Protection</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River-Preston Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hancock Creek 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Fawn Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Little Wenatchee River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Fawn 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Rattlesnake Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Rattlesnake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River-Thompson Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower Nason Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Summer Rearing,Holding and Maturation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Middle 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Upper Twisp River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Twisp River Upper 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River Beaver 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wenatchee River-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing,Summer Rearing</t>
+    <t xml:space="preserve">Entiat River Preston 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing,Fry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entiat River Preston 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methow River Thompson 09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation,Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower White River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White River Lower 08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spawning and Incubation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolf Creek 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prevent Limiting Factors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Lake 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Potato 07</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing,Fry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entiat River Preston 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Little Wenatchee River Lower 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winter Rearing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Methow River Thompson 09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nason Creek Lower 07</t>
   </si>
   <si>
     <t xml:space="preserve">Wenatchee River Beaver 03</t>
@@ -727,53 +733,53 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -796,7 +802,7 @@
         <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -819,7 +825,7 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -842,7 +848,7 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -880,7 +886,7 @@
         <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
@@ -891,16 +897,16 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
         <v>13</v>
@@ -908,22 +914,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>31</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G11" t="s">
         <v>13</v>
@@ -931,22 +937,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>34</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>13</v>
@@ -954,22 +960,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s">
         <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
         <v>13</v>
@@ -977,22 +983,22 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>13</v>
@@ -1000,22 +1006,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E15" t="s">
         <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
@@ -1029,10 +1035,10 @@
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" t="s">
         <v>28</v>
@@ -1041,7 +1047,7 @@
         <v>41</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
@@ -1052,42 +1058,42 @@
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
         <v>41</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
         <v>41</v>
       </c>
       <c r="G18" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1095,45 +1101,45 @@
         <v>45</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
         <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" t="s">
         <v>48</v>
       </c>
-      <c r="B20" t="s">
-        <v>46</v>
-      </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
@@ -1156,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="G21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22">
@@ -1196,13 +1202,13 @@
         <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
         <v>12</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
@@ -1225,7 +1231,7 @@
         <v>12</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
@@ -1285,16 +1291,16 @@
         <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E27" t="s">
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
@@ -1308,16 +1314,16 @@
         <v>9</v>
       </c>
       <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
         <v>17</v>
       </c>
-      <c r="E28" t="s">
-        <v>47</v>
-      </c>
-      <c r="F28" t="s">
-        <v>18</v>
-      </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -1331,30 +1337,28 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E29"/>
       <c r="F29" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>62</v>
       </c>
       <c r="C30" t="s">
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
         <v>11</v>
@@ -1363,7 +1367,7 @@
         <v>65</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
@@ -1371,43 +1375,45 @@
         <v>66</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
         <v>67</v>
       </c>
-      <c r="B32" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
@@ -1415,7 +1421,7 @@
         <v>69</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
         <v>9</v>
@@ -1428,38 +1434,36 @@
         <v>12</v>
       </c>
       <c r="G33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" t="s">
         <v>70</v>
       </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
       <c r="C34" t="s">
         <v>9</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
+      <c r="E34"/>
       <c r="F34" t="s">
         <v>12</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C35" t="s">
         <v>9</v>
@@ -1482,7 +1486,7 @@
         <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
         <v>9</v>
@@ -1502,22 +1506,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
       <c r="C37" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
         <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G37" t="s">
         <v>13</v>
@@ -1525,16 +1529,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
       </c>
       <c r="C38" t="s">
         <v>27</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E38" t="s">
         <v>11</v>
@@ -1543,7 +1547,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39">
@@ -1566,7 +1570,7 @@
         <v>12</v>
       </c>
       <c r="G39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
@@ -1589,7 +1593,7 @@
         <v>12</v>
       </c>
       <c r="G40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
@@ -1603,7 +1607,7 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E41" t="s">
         <v>11</v>
@@ -1612,7 +1616,7 @@
         <v>83</v>
       </c>
       <c r="G41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
@@ -1620,30 +1624,30 @@
         <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
         <v>86</v>
-      </c>
-      <c r="B43" t="s">
-        <v>85</v>
       </c>
       <c r="C43" t="s">
         <v>9</v>
@@ -1666,10 +1670,10 @@
         <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D44" t="s">
         <v>88</v>
@@ -1678,28 +1682,28 @@
         <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
         <v>13</v>
@@ -1707,20 +1711,20 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
         <v>88</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>13</v>
@@ -1728,55 +1732,57 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D47" t="s">
         <v>88</v>
       </c>
-      <c r="E47"/>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
       <c r="F47" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="G47" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
         <v>88</v>
       </c>
       <c r="E48"/>
       <c r="F48" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
         <v>88</v>
@@ -1788,35 +1794,35 @@
         <v>41</v>
       </c>
       <c r="G49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D50" t="s">
         <v>88</v>
       </c>
       <c r="E50" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
         <v>41</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
@@ -1827,9 +1833,7 @@
       <c r="D51" t="s">
         <v>88</v>
       </c>
-      <c r="E51" t="s">
-        <v>11</v>
-      </c>
+      <c r="E51"/>
       <c r="F51" t="s">
         <v>83</v>
       </c>
@@ -1839,28 +1843,30 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
         <v>88</v>
       </c>
-      <c r="E52"/>
+      <c r="E52" t="s">
+        <v>11</v>
+      </c>
       <c r="F52" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
@@ -1871,19 +1877,17 @@
       <c r="D53" t="s">
         <v>88</v>
       </c>
-      <c r="E53" t="s">
-        <v>11</v>
-      </c>
+      <c r="E53"/>
       <c r="F53" t="s">
         <v>99</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
@@ -1899,12 +1903,12 @@
         <v>99</v>
       </c>
       <c r="G54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
@@ -1920,12 +1924,12 @@
         <v>99</v>
       </c>
       <c r="G55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
@@ -1936,17 +1940,19 @@
       <c r="D56" t="s">
         <v>88</v>
       </c>
-      <c r="E56"/>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
       <c r="F56" t="s">
         <v>99</v>
       </c>
       <c r="G56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
@@ -1958,24 +1964,24 @@
         <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="G57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D58" t="s">
         <v>88</v>
@@ -1984,18 +1990,18 @@
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
@@ -2007,18 +2013,18 @@
         <v>28</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B60" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s">
         <v>27</v>
@@ -2027,21 +2033,21 @@
         <v>88</v>
       </c>
       <c r="E60" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
@@ -2053,18 +2059,18 @@
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C62" t="s">
         <v>27</v>
@@ -2073,21 +2079,21 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B63" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
@@ -2099,18 +2105,18 @@
         <v>28</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B64" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -2120,10 +2126,10 @@
       </c>
       <c r="E64"/>
       <c r="F64" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
